--- a/src/Examples/示例工资表数据.xlsx
+++ b/src/Examples/示例工资表数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Personal\uzon-mail\src\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Personal\SendMultipleEmails\src\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34429BF-04B6-4806-AF2A-62D047153B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B9530-EB26-4FEE-B687-B621A3AEC81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6AEB633-E97D-45B2-8DAE-805D7115E41F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>人员编号</t>
   </si>
@@ -208,12 +208,20 @@
     <t>inbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +249,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -357,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -380,19 +381,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,13 +714,13 @@
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8" bestFit="1" customWidth="1"/>
@@ -739,7 +740,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -844,15 +845,17 @@
       <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>100</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" s="5">
         <v>3450</v>
       </c>
@@ -959,15 +962,17 @@
         <f>AD2-AB2</f>
         <v>7794.5200000000013</v>
       </c>
-      <c r="AK2" s="10">
+      <c r="AK2" s="9">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>100</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="5">
         <v>3000</v>
       </c>
@@ -1077,8 +1082,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D6CAD9EF-5A57-443D-89CB-E8D0458FE5DB}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00871C54-848F-438D-96BF-546C2A5AD93A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1116,7 +1125,7 @@
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
@@ -1130,7 +1139,7 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
@@ -1178,7 +1187,7 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1186,7 +1195,7 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
     </row>

--- a/src/Examples/示例工资表数据.xlsx
+++ b/src/Examples/示例工资表数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Personal\SendMultipleEmails\src\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B9530-EB26-4FEE-B687-B621A3AEC81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE9CC7-0241-4657-BC1F-AC039197F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6AEB633-E97D-45B2-8DAE-805D7115E41F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>人员编号</t>
   </si>
@@ -188,20 +188,6 @@
   </si>
   <si>
     <t>260827400@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年份</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,14 +253,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -344,15 +322,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -362,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,12 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB7E188-E602-4110-A60A-29BF8DAB512B}">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,12 +699,12 @@
     <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -845,16 +808,13 @@
       <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>49</v>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="5">
         <v>3450</v>
@@ -962,16 +922,13 @@
         <f>AD2-AB2</f>
         <v>7794.5200000000013</v>
       </c>
-      <c r="AK2" s="9">
-        <v>2021</v>
-      </c>
     </row>
-    <row r="3" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="5">
         <v>3000</v>
@@ -1077,6 +1034,120 @@
       </c>
       <c r="AJ3" s="5">
         <f>AD3-AB3</f>
+        <v>7344.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>250</v>
+      </c>
+      <c r="J4" s="5">
+        <v>150</v>
+      </c>
+      <c r="K4" s="5">
+        <v>450</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>100</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <f>SUM(C4:U4)</f>
+        <v>8980</v>
+      </c>
+      <c r="W4" s="5">
+        <v>299.18</v>
+      </c>
+      <c r="X4" s="5">
+        <v>81.8</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>11.22</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>665</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>578.28</v>
+      </c>
+      <c r="AC4" s="5">
+        <f>SUM(W4:AB4)</f>
+        <v>1635.48</v>
+      </c>
+      <c r="AD4" s="5">
+        <f>V4-AC4+AB4</f>
+        <v>7922.8</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <f>AD4-AB4</f>
         <v>7344.52</v>
       </c>
     </row>
@@ -1085,9 +1156,10 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D6CAD9EF-5A57-443D-89CB-E8D0458FE5DB}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00871C54-848F-438D-96BF-546C2A5AD93A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{52B9A4F6-42F1-408A-BC80-889808BB1D8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
